--- a/data/scheduling_DNN/predict/0.9/result18.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result18.xlsx
@@ -570,10 +570,10 @@
         <v>1.269690036773682</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.513516366481781</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3792888820171356</v>
+        <v>0.5717986226081848</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.010738849639893</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.3990731537342072</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3517273962497711</v>
+        <v>0.3741349577903748</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.876971960067749</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.4019196927547455</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1729291826486588</v>
+        <v>0.2256746590137482</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8700790405273438</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8785681128501892</v>
       </c>
       <c r="W5" t="n">
-        <v>0.144221767783165</v>
+        <v>7.206435111584142e-05</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8742280006408691</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.4000117182731628</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2740253210067749</v>
+        <v>0.2248810827732086</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9241909980773926</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.4004597365856171</v>
       </c>
       <c r="W7" t="n">
-        <v>0.007318702060729265</v>
+        <v>0.2742944061756134</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8601181507110596</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.887671172618866</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0009264105465263128</v>
+        <v>0.0007591689936816692</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8665289878845215</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.8638012409210205</v>
       </c>
       <c r="W9" t="n">
-        <v>0.07480516284704208</v>
+        <v>7.440603440045379e-06</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8739249706268311</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.5160772204399109</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1704166680574417</v>
+        <v>0.1280550062656403</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9321689605712891</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.5238861441612244</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2196643501520157</v>
+        <v>0.1666948646306992</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8607571125030518</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.400457888841629</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1121931597590446</v>
+        <v>0.2118753790855408</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8682320117950439</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.3998254239559174</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08538834750652313</v>
+        <v>0.2194047272205353</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8625099658966064</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.8729141354560852</v>
       </c>
       <c r="W14" t="n">
-        <v>0.138309121131897</v>
+        <v>0.0001082467424566858</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.949289083480835</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.5240667462348938</v>
       </c>
       <c r="W15" t="n">
-        <v>0.08828707784414291</v>
+        <v>0.1808140426874161</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8655190467834473</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.3990366756916046</v>
       </c>
       <c r="W16" t="n">
-        <v>0.003786636982113123</v>
+        <v>0.2176057994365692</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8620970249176025</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.5202426910400391</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1377512961626053</v>
+        <v>0.1168643832206726</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8683829307556152</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.8700112700462341</v>
       </c>
       <c r="W18" t="n">
-        <v>0.03315012156963348</v>
+        <v>2.651488784977118e-06</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9064829349517822</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.876655638217926</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1456761807203293</v>
+        <v>0.0008896676590666175</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8641948699951172</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.4000197947025299</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1602693349123001</v>
+        <v>0.2154584974050522</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.855443000793457</v>
       </c>
       <c r="V21" t="n">
-        <v>0.490329772233963</v>
+        <v>0.5205382704734802</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1333076655864716</v>
+        <v>0.1121611818671227</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5343179702758789</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.4009716808795929</v>
       </c>
       <c r="W22" t="n">
-        <v>0.02713676169514656</v>
+        <v>0.01778123341500759</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5227479934692383</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.4004230201244354</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01730802468955517</v>
+        <v>0.01496339868754148</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5283949375152588</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.5160912871360779</v>
       </c>
       <c r="W24" t="n">
-        <v>0.002891726326197386</v>
+        <v>0.0001513798197265714</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5432741641998291</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.5181008577346802</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01201384700834751</v>
+        <v>0.0006336953374557197</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.531296968460083</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.8753947019577026</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01500680577009916</v>
+        <v>0.118403248488903</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5142159461975098</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.5661993622779846</v>
       </c>
       <c r="W27" t="n">
-        <v>7.688761979807168e-05</v>
+        <v>0.002702275523915887</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5147120952606201</v>
       </c>
       <c r="V28" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5216373205184937</v>
       </c>
       <c r="W28" t="n">
-        <v>0.02023350261151791</v>
+        <v>4.795874338014983e-05</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5744509696960449</v>
       </c>
       <c r="V29" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.8677173256874084</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1610282063484192</v>
+        <v>0.08600515872240067</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5210068225860596</v>
       </c>
       <c r="V30" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.5220882892608643</v>
       </c>
       <c r="W30" t="n">
-        <v>0.07944885641336441</v>
+        <v>1.169570168713108e-06</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5136299133300781</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.5158144235610962</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02617153339087963</v>
+        <v>4.772085048898589e-06</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.537571907043457</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.5164551734924316</v>
       </c>
       <c r="W32" t="n">
-        <v>0.03630563244223595</v>
+        <v>0.0004459164338186383</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5125949382781982</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.5210570096969604</v>
       </c>
       <c r="W33" t="n">
-        <v>5.620341107714921e-05</v>
+        <v>7.16066497261636e-05</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5159950256347656</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.8665058016777039</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02729415893554688</v>
+        <v>0.1228578016161919</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5142068862915039</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.3992272019386292</v>
       </c>
       <c r="W35" t="n">
-        <v>0.009343499317765236</v>
+        <v>0.01322032790631056</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.516063928604126</v>
       </c>
       <c r="V36" t="n">
-        <v>0.653571605682373</v>
+        <v>0.4009886384010315</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01890836097300053</v>
+        <v>0.01324232202023268</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.529803991317749</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.4000113904476166</v>
       </c>
       <c r="W37" t="n">
-        <v>0.001515071489848197</v>
+        <v>0.01684611849486828</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5123329162597656</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.8749295473098755</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0197244118899107</v>
+        <v>0.1314763128757477</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5132081508636475</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.4009702503681183</v>
       </c>
       <c r="W39" t="n">
-        <v>0.00123056152369827</v>
+        <v>0.0125973466783762</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5675179958343506</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.399059921503067</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02245974168181419</v>
+        <v>0.02837812341749668</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5141711235046387</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.873346745967865</v>
       </c>
       <c r="W41" t="n">
-        <v>0.009314362891018391</v>
+        <v>0.1290071308612823</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3912451267242432</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.8757366538047791</v>
       </c>
       <c r="W42" t="n">
-        <v>0.03845275565981865</v>
+        <v>0.2347320467233658</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4188210964202881</v>
       </c>
       <c r="V43" t="n">
-        <v>0.417663037776947</v>
+        <v>0.5157437920570374</v>
       </c>
       <c r="W43" t="n">
-        <v>1.341099846285942e-06</v>
+        <v>0.009394008666276932</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3873109817504883</v>
       </c>
       <c r="V44" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8868201375007629</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1719888746738434</v>
+        <v>0.2495093941688538</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3885190486907959</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.8880513906478882</v>
       </c>
       <c r="W45" t="n">
-        <v>0.04085864126682281</v>
+        <v>0.2495325654745102</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4428520202636719</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.8731477856636047</v>
       </c>
       <c r="W46" t="n">
-        <v>0.006679608952254057</v>
+        <v>0.18515445291996</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4218389987945557</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.526108980178833</v>
       </c>
       <c r="W47" t="n">
-        <v>0.05356163531541824</v>
+        <v>0.01087222900241613</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4087378978729248</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.8588570952415466</v>
       </c>
       <c r="W48" t="n">
-        <v>0.00365516310557723</v>
+        <v>0.2026072889566422</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3881540298461914</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.4010012149810791</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0704212412238121</v>
+        <v>0.0001650501653784886</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3886270523071289</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.886580228805542</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0703267827630043</v>
+        <v>0.2479573637247086</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3858070373535156</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.8725929260253906</v>
       </c>
       <c r="W51" t="n">
-        <v>0.006955253425985575</v>
+        <v>0.2369605004787445</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4010021686553955</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.5163365602493286</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0001309092622250319</v>
+        <v>0.01330202165991068</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3893020153045654</v>
       </c>
       <c r="V53" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.4003822803497314</v>
       </c>
       <c r="W53" t="n">
-        <v>0.1690231263637543</v>
+        <v>0.000122772267786786</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3831720352172852</v>
       </c>
       <c r="V54" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.5228966474533081</v>
       </c>
       <c r="W54" t="n">
-        <v>0.2100212872028351</v>
+        <v>0.01952296681702137</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3851089477539062</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.5277790427207947</v>
       </c>
       <c r="W55" t="n">
-        <v>0.07176248729228973</v>
+        <v>0.02035475522279739</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3868100643157959</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.526792049407959</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01898269169032574</v>
+        <v>0.019594956189394</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3875558376312256</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.8788832426071167</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01925869658589363</v>
+        <v>0.2414026260375977</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3889069557189941</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.4003879129886627</v>
       </c>
       <c r="W58" t="n">
-        <v>0.2009149640798569</v>
+        <v>0.0001318123831879348</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.4009251594543457</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.4962299764156342</v>
       </c>
       <c r="W59" t="n">
-        <v>0.06375546753406525</v>
+        <v>0.009083008393645287</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3869838714599609</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.8661332726478577</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0009392154752276838</v>
+        <v>0.2295841425657272</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3930368423461914</v>
       </c>
       <c r="V61" t="n">
-        <v>0.801636278629303</v>
+        <v>0.4009632766246796</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1669535040855408</v>
+        <v>6.282835965976119e-05</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9245188236236572</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.8702337145805359</v>
       </c>
       <c r="W62" t="n">
-        <v>0.3055667579174042</v>
+        <v>0.002946872962638736</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.9382460117340088</v>
       </c>
       <c r="V63" t="n">
-        <v>0.490833193063736</v>
+        <v>0.8756672739982605</v>
       </c>
       <c r="W63" t="n">
-        <v>0.2001782357692719</v>
+        <v>0.003916098270565271</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8619019985198975</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.8722619414329529</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2409705370664597</v>
+        <v>0.0001073284147423692</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8620679378509521</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.5234048962593079</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2614462375640869</v>
+        <v>0.1146926581859589</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8786609172821045</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.5161011219024658</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1505526602268219</v>
+        <v>0.1314496099948883</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8612771034240723</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.3990556001663208</v>
       </c>
       <c r="W67" t="n">
-        <v>0.04267807304859161</v>
+        <v>0.213648721575737</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8796980381011963</v>
       </c>
       <c r="V68" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.4003653824329376</v>
       </c>
       <c r="W68" t="n">
-        <v>0.2797945737838745</v>
+        <v>0.2297597974538803</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8565430641174316</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.4018445909023285</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2595968842506409</v>
+        <v>0.2067507058382034</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8605020046234131</v>
       </c>
       <c r="V70" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.8797511458396912</v>
       </c>
       <c r="W70" t="n">
-        <v>0.2324664294719696</v>
+        <v>0.0003705294511746615</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.858828067779541</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.4009907841682434</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1254096031188965</v>
+        <v>0.2096149772405624</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8659281730651855</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.8788886070251465</v>
       </c>
       <c r="W72" t="n">
-        <v>0.02995855361223221</v>
+        <v>0.0001679728447925299</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8811218738555908</v>
       </c>
       <c r="V73" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.5454725623130798</v>
       </c>
       <c r="W73" t="n">
-        <v>0.005836073774844408</v>
+        <v>0.1126604601740837</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8621559143066406</v>
       </c>
       <c r="V74" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.3999225199222565</v>
       </c>
       <c r="W74" t="n">
-        <v>0.003532322123646736</v>
+        <v>0.2136597037315369</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.9281289577484131</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.5134443044662476</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1626782417297363</v>
+        <v>0.1719633638858795</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8757820129394531</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.8758832812309265</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1485040783882141</v>
+        <v>1.02552668579392e-08</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8591148853302002</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.8737800717353821</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1948989927768707</v>
+        <v>0.0002150676882592961</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8604319095611572</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5182644128799438</v>
       </c>
       <c r="W78" t="n">
-        <v>0.04396198689937592</v>
+        <v>0.1170785948634148</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9253880977630615</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8640899062156677</v>
       </c>
       <c r="W79" t="n">
-        <v>0.07444395124912262</v>
+        <v>0.00375746819190681</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8592870235443115</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.3998973071575165</v>
       </c>
       <c r="W80" t="n">
-        <v>0.04250858351588249</v>
+        <v>0.2110389173030853</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8524949550628662</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.8723256587982178</v>
       </c>
       <c r="W81" t="n">
-        <v>0.02553222887217999</v>
+        <v>0.0003932568070013076</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5408709049224854</v>
       </c>
       <c r="V82" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.5233140587806702</v>
       </c>
       <c r="W82" t="n">
-        <v>0.02604936994612217</v>
+        <v>0.0003082428593188524</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5216939449310303</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.8735265135765076</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01082514598965645</v>
+        <v>0.1237861588597298</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5686008930206299</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.8668399453163147</v>
       </c>
       <c r="W84" t="n">
-        <v>0.001939486945047975</v>
+        <v>0.08894652873277664</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5140869617462158</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.514086902141571</v>
       </c>
       <c r="W85" t="n">
-        <v>0.02021131291985512</v>
+        <v>3.552713678800501e-15</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5138490200042725</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.878325879573822</v>
       </c>
       <c r="W86" t="n">
-        <v>7.654097134945914e-05</v>
+        <v>0.1328433752059937</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5116360187530518</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.5150766372680664</v>
       </c>
       <c r="W87" t="n">
-        <v>0.004145397339016199</v>
+        <v>1.183785570901819e-05</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5138940811157227</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.5227218270301819</v>
       </c>
       <c r="W88" t="n">
-        <v>0.006528745405375957</v>
+        <v>7.79291003709659e-05</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5176048278808594</v>
       </c>
       <c r="V89" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8685452938079834</v>
       </c>
       <c r="W89" t="n">
-        <v>0.005333223380148411</v>
+        <v>0.1231592074036598</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5183300971984863</v>
       </c>
       <c r="V90" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.8733749389648438</v>
       </c>
       <c r="W90" t="n">
-        <v>0.08193148672580719</v>
+        <v>0.1260568350553513</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5258800983428955</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.52647465467453</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0004402254417072982</v>
+        <v>3.534972279339854e-07</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5176708698272705</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.5288733839988708</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0001624735887162387</v>
+        <v>0.0001254963281098753</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5166809558868408</v>
       </c>
       <c r="V93" t="n">
-        <v>0.975181519985199</v>
+        <v>0.5320962071418762</v>
       </c>
       <c r="W93" t="n">
-        <v>0.2102227658033371</v>
+        <v>0.0002376299671595916</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5093381404876709</v>
       </c>
       <c r="V94" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.4004447460174561</v>
       </c>
       <c r="W94" t="n">
-        <v>0.2173809558153152</v>
+        <v>0.01185777131468058</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5585439205169678</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.5156937837600708</v>
       </c>
       <c r="W95" t="n">
-        <v>0.001140346168540418</v>
+        <v>0.001836134237237275</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5156550407409668</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.8705182671546936</v>
       </c>
       <c r="W96" t="n">
-        <v>0.002687157597392797</v>
+        <v>0.1259279102087021</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5176880359649658</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.8944205045700073</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0001793034025467932</v>
+        <v>0.1419273465871811</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5105881690979004</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.40096715092659</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0043050074018538</v>
+        <v>0.01201676763594151</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5191740989685059</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.8733168840408325</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01801177673041821</v>
+        <v>0.1254171133041382</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5402109622955322</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.8863033652305603</v>
       </c>
       <c r="W100" t="n">
-        <v>0.001303522032685578</v>
+        <v>0.1197799518704414</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5146641731262207</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.5330166816711426</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0005731277633458376</v>
+        <v>0.0003368145553395152</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4083199501037598</v>
       </c>
       <c r="V102" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.5163384079933167</v>
       </c>
       <c r="W102" t="n">
-        <v>0.003312299028038979</v>
+        <v>0.01166798733174801</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3989789485931396</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.5280762910842896</v>
       </c>
       <c r="W103" t="n">
-        <v>0.03358091413974762</v>
+        <v>0.01666612364351749</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3870809078216553</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.3999360203742981</v>
       </c>
       <c r="W104" t="n">
-        <v>0.0009334956994280219</v>
+        <v>0.0001652539212955162</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.3945848941802979</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.4004063606262207</v>
       </c>
       <c r="W105" t="n">
-        <v>0.06609650701284409</v>
+        <v>3.388947152416222e-05</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3872430324554443</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.4001670777797699</v>
       </c>
       <c r="W106" t="n">
-        <v>0.005459283012896776</v>
+        <v>0.0001670309429755434</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.388275146484375</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.532626211643219</v>
       </c>
       <c r="W107" t="n">
-        <v>0.001408816664479673</v>
+        <v>0.02083723060786724</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3869559764862061</v>
       </c>
       <c r="V108" t="n">
-        <v>0.838257908821106</v>
+        <v>0.8753078579902649</v>
       </c>
       <c r="W108" t="n">
-        <v>0.2036734372377396</v>
+        <v>0.2384875565767288</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3874819278717041</v>
       </c>
       <c r="V109" t="n">
-        <v>0.800457239151001</v>
+        <v>0.4003729224205017</v>
       </c>
       <c r="W109" t="n">
-        <v>0.170548602938652</v>
+        <v>0.0001661777350818738</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3869829177856445</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.5211899876594543</v>
       </c>
       <c r="W110" t="n">
-        <v>0.01075928658246994</v>
+        <v>0.0180115383118391</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3910839557647705</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.8710471987724304</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01287892181426287</v>
+        <v>0.2303647100925446</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4147169589996338</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.3990597724914551</v>
       </c>
       <c r="W112" t="n">
-        <v>8.541558599972632e-06</v>
+        <v>0.0002451475011184812</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3924050331115723</v>
       </c>
       <c r="V113" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.4009742438793182</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0996275395154953</v>
+        <v>7.343137258430943e-05</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.390070915222168</v>
       </c>
       <c r="V114" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.5206897258758545</v>
       </c>
       <c r="W114" t="n">
-        <v>0.3430147767066956</v>
+        <v>0.0170612744987011</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3916049003601074</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.5207303762435913</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0003805366577580571</v>
+        <v>0.01667338795959949</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3872580528259277</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.4003377854824066</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0009246098925359547</v>
+        <v>0.0001710794022073969</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3892989158630371</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.3998278081417084</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0103092398494482</v>
+        <v>0.0001108575743273832</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4139010906219482</v>
       </c>
       <c r="V118" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.527540385723114</v>
       </c>
       <c r="W118" t="n">
-        <v>0.003986178431659937</v>
+        <v>0.01291388925164938</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.4412240982055664</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.3990626633167267</v>
       </c>
       <c r="W119" t="n">
-        <v>0.003883618162944913</v>
+        <v>0.001777586643584073</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3907618522644043</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.8719812035560608</v>
       </c>
       <c r="W120" t="n">
-        <v>0.005288270767778158</v>
+        <v>0.2315720617771149</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3884119987487793</v>
       </c>
       <c r="V121" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.8654268383979797</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1697669923305511</v>
+        <v>0.2275431603193283</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8601222038269043</v>
       </c>
       <c r="V122" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.5295434594154358</v>
       </c>
       <c r="W122" t="n">
-        <v>0.01333371829241514</v>
+        <v>0.1092823073267937</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9245061874389648</v>
       </c>
       <c r="V123" t="n">
-        <v>0.576347291469574</v>
+        <v>0.3992092907428741</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1212146133184433</v>
+        <v>0.2759368717670441</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9203100204467773</v>
       </c>
       <c r="V124" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.8742554187774658</v>
       </c>
       <c r="W124" t="n">
-        <v>0.01394598837941885</v>
+        <v>0.002121026394888759</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8656120300292969</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.8669029474258423</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1632977277040482</v>
+        <v>1.666467710492725e-06</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8851768970489502</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.4009903967380524</v>
       </c>
       <c r="W126" t="n">
-        <v>0.09167712181806564</v>
+        <v>0.234436571598053</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8620259761810303</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.4004596471786499</v>
       </c>
       <c r="W127" t="n">
-        <v>0.126871794462204</v>
+        <v>0.2130434811115265</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9070391654968262</v>
       </c>
       <c r="V128" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.8836721777915955</v>
       </c>
       <c r="W128" t="n">
-        <v>0.3086048662662506</v>
+        <v>0.0005460160900838673</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8604631423950195</v>
       </c>
       <c r="V129" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.52814781665802</v>
       </c>
       <c r="W129" t="n">
-        <v>0.02320892736315727</v>
+        <v>0.1104334741830826</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8581531047821045</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.8887085318565369</v>
       </c>
       <c r="W130" t="n">
-        <v>0.02525929547846317</v>
+        <v>0.0009336341172456741</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8741350173950195</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.4003909826278687</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2083988636732101</v>
+        <v>0.2244334071874619</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9584860801696777</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.5224816799163818</v>
       </c>
       <c r="W132" t="n">
-        <v>0.205550491809845</v>
+        <v>0.190099835395813</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8725981712341309</v>
       </c>
       <c r="V133" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.400149792432785</v>
       </c>
       <c r="W133" t="n">
-        <v>0.005198485217988491</v>
+        <v>0.2232074737548828</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8590209484100342</v>
       </c>
       <c r="V134" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.8739534616470337</v>
       </c>
       <c r="W134" t="n">
-        <v>0.0006273912149481475</v>
+        <v>0.0002229799574706703</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8762891292572021</v>
       </c>
       <c r="V135" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.4003829061985016</v>
       </c>
       <c r="W135" t="n">
-        <v>0.009786072187125683</v>
+        <v>0.2264867275953293</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8743970394134521</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.8734961748123169</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2734271287918091</v>
+        <v>8.115570153677254e-07</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8700361251831055</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.861733078956604</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2487656325101852</v>
+        <v>6.894057878525928e-05</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8490619659423828</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.5180489420890808</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1502335518598557</v>
+        <v>0.1095696240663528</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8542399406433105</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.8869038224220276</v>
       </c>
       <c r="W139" t="n">
-        <v>0.04013008624315262</v>
+        <v>0.001066929195076227</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8613569736480713</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.8562552332878113</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1968893259763718</v>
+        <v>2.602775384730194e-05</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.865792989730835</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.5284067988395691</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1408511102199554</v>
+        <v>0.1138294413685799</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5194821357727051</v>
       </c>
       <c r="V142" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.4000402987003326</v>
       </c>
       <c r="W142" t="n">
-        <v>0.2080159932374954</v>
+        <v>0.01426635216921568</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5194950103759766</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.5151592493057251</v>
       </c>
       <c r="W143" t="n">
-        <v>0.00321865500882268</v>
+        <v>1.879882438515779e-05</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5146219730377197</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.8861628174781799</v>
       </c>
       <c r="W144" t="n">
-        <v>0.000615001714322716</v>
+        <v>0.1380425989627838</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5113160610198975</v>
       </c>
       <c r="V145" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.4019966423511505</v>
       </c>
       <c r="W145" t="n">
-        <v>0.08514923602342606</v>
+        <v>0.01195073500275612</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5186669826507568</v>
       </c>
       <c r="V146" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.8870213031768799</v>
       </c>
       <c r="W146" t="n">
-        <v>0.09671061486005783</v>
+        <v>0.1356849074363708</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5272018909454346</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8628789782524109</v>
       </c>
       <c r="W147" t="n">
-        <v>0.001403604401275516</v>
+        <v>0.1126791089773178</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5150139331817627</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.5193094611167908</v>
       </c>
       <c r="W148" t="n">
-        <v>0.0204246062785387</v>
+        <v>1.845156111812685e-05</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5216619968414307</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.5285655856132507</v>
       </c>
       <c r="W149" t="n">
-        <v>0.01759795658290386</v>
+        <v>4.765953781316057e-05</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5699019432067871</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.5151324868202209</v>
       </c>
       <c r="W150" t="n">
-        <v>0.006322087254375219</v>
+        <v>0.00299969338811934</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.516726016998291</v>
       </c>
       <c r="V151" t="n">
-        <v>0.417652815580368</v>
+        <v>0.516121506690979</v>
       </c>
       <c r="W151" t="n">
-        <v>0.009815499186515808</v>
+        <v>3.654326974356081e-07</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5152320861816406</v>
       </c>
       <c r="V152" t="n">
-        <v>0.97564297914505</v>
+        <v>0.3998084664344788</v>
       </c>
       <c r="W152" t="n">
-        <v>0.2119781970977783</v>
+        <v>0.01332261227071285</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5111620426177979</v>
       </c>
       <c r="V153" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.5662867426872253</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01757811568677425</v>
+        <v>0.003038732567802072</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5128259658813477</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.5191164612770081</v>
       </c>
       <c r="W154" t="n">
-        <v>0.018084317445755</v>
+        <v>3.957033186452463e-05</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5488100051879883</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.3990724980831146</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0005952928913757205</v>
+        <v>0.02242132090032101</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5195050239562988</v>
       </c>
       <c r="V156" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.4018855690956116</v>
       </c>
       <c r="W156" t="n">
-        <v>0.02006044052541256</v>
+        <v>0.0138343358412385</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.520866870880127</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.399073451757431</v>
       </c>
       <c r="W157" t="n">
-        <v>0.01068729348480701</v>
+        <v>0.01483363658189774</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5192098617553711</v>
       </c>
       <c r="V158" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.8682384490966797</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02961449325084686</v>
+        <v>0.1218209564685822</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5162031650543213</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.3990391790866852</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0001003780562314205</v>
+        <v>0.013727399520576</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5165669918060303</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.8809317946434021</v>
       </c>
       <c r="W160" t="n">
-        <v>0.003566903062164783</v>
+        <v>0.1327617168426514</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5403211116790771</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.3990655839443207</v>
       </c>
       <c r="W161" t="n">
-        <v>0.001238905708305538</v>
+        <v>0.01995312422513962</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3938150405883789</v>
       </c>
       <c r="V162" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.5216932892799377</v>
       </c>
       <c r="W162" t="n">
-        <v>0.09876058995723724</v>
+        <v>0.01635284721851349</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3892979621887207</v>
       </c>
       <c r="V163" t="n">
-        <v>0.708076536655426</v>
+        <v>0.8659861087799072</v>
       </c>
       <c r="W163" t="n">
-        <v>0.1016197800636292</v>
+        <v>0.2272315919399261</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3954229354858398</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.8715649247169495</v>
       </c>
       <c r="W164" t="n">
-        <v>0.004369836766272783</v>
+        <v>0.2267111986875534</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3914718627929688</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.8893796801567078</v>
       </c>
       <c r="W165" t="n">
-        <v>0.03412781283259392</v>
+        <v>0.24791219830513</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3905520439147949</v>
       </c>
       <c r="V166" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.4009990096092224</v>
       </c>
       <c r="W166" t="n">
-        <v>0.1689503639936447</v>
+        <v>0.0001091390950023197</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4481298923492432</v>
       </c>
       <c r="V167" t="n">
-        <v>0.653493344783783</v>
+        <v>0.4021781384944916</v>
       </c>
       <c r="W167" t="n">
-        <v>0.04217414930462837</v>
+        <v>0.002111563691869378</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.391279935836792</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8705939650535583</v>
       </c>
       <c r="W168" t="n">
-        <v>0.03834244981408119</v>
+        <v>0.2297419458627701</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4046139717102051</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.3998050391674042</v>
       </c>
       <c r="W169" t="n">
-        <v>0.007423854433000088</v>
+        <v>2.312583274033386e-05</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3889758586883545</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.8708575367927551</v>
       </c>
       <c r="W170" t="n">
-        <v>0.06988615542650223</v>
+        <v>0.2322099506855011</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3893430233001709</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.5179158449172974</v>
       </c>
       <c r="W171" t="n">
-        <v>0.01021611783653498</v>
+        <v>0.0165309701114893</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3897321224212646</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.4019854068756104</v>
       </c>
       <c r="W172" t="n">
-        <v>0.06964757293462753</v>
+        <v>0.0001501429796917364</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4331810474395752</v>
       </c>
       <c r="V173" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.3990536332130432</v>
       </c>
       <c r="W173" t="n">
-        <v>0.006789827719330788</v>
+        <v>0.001164680346846581</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3901619911193848</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.4019370675086975</v>
       </c>
       <c r="W174" t="n">
-        <v>0.01813129521906376</v>
+        <v>0.0001386524236295372</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3931159973144531</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.8664776682853699</v>
       </c>
       <c r="W175" t="n">
-        <v>0.03910849243402481</v>
+        <v>0.2240712642669678</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3913121223449707</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.3998969495296478</v>
       </c>
       <c r="W176" t="n">
-        <v>0.09480965137481689</v>
+        <v>7.369925879174843e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.400521993637085</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.5089808702468872</v>
       </c>
       <c r="W177" t="n">
-        <v>0.03622862696647644</v>
+        <v>0.01176332775503397</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3934769630432129</v>
       </c>
       <c r="V178" t="n">
-        <v>0.652911365032196</v>
+        <v>0.5155953168869019</v>
       </c>
       <c r="W178" t="n">
-        <v>0.06730620563030243</v>
+        <v>0.01491289213299751</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3917620182037354</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.5226478576660156</v>
       </c>
       <c r="W179" t="n">
-        <v>0.00520016998052597</v>
+        <v>0.01713110320270061</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3930468559265137</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.4004339575767517</v>
       </c>
       <c r="W180" t="n">
-        <v>0.01745670661330223</v>
+        <v>5.456927101477049e-05</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4042179584503174</v>
       </c>
       <c r="V181" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.401985764503479</v>
       </c>
       <c r="W181" t="n">
-        <v>0.09243126958608627</v>
+        <v>4.982689915777883e-06</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8739430904388428</v>
       </c>
       <c r="V182" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.3990479111671448</v>
       </c>
       <c r="W182" t="n">
-        <v>0.01033965498209</v>
+        <v>0.2255254238843918</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9143209457397461</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.8693175315856934</v>
       </c>
       <c r="W183" t="n">
-        <v>0.05200204253196716</v>
+        <v>0.002025307388976216</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.929595947265625</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.8673877120018005</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1637216359376907</v>
+        <v>0.003869864623993635</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8785200119018555</v>
       </c>
       <c r="V185" t="n">
-        <v>0.490907609462738</v>
+        <v>0.4003882706165314</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1502433717250824</v>
+        <v>0.2286099642515182</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8799419403076172</v>
       </c>
       <c r="V186" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.4018709361553192</v>
       </c>
       <c r="W186" t="n">
-        <v>0.00914969015866518</v>
+        <v>0.2285518795251846</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8876979351043701</v>
       </c>
       <c r="V187" t="n">
-        <v>0.655465304851532</v>
+        <v>0.5105443596839905</v>
       </c>
       <c r="W187" t="n">
-        <v>0.05393199622631073</v>
+        <v>0.142244815826416</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9252371788024902</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.5091835260391235</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1777704656124115</v>
+        <v>0.1731006354093552</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.870772123336792</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.3992341756820679</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1658775061368942</v>
+        <v>0.2223480343818665</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8548979759216309</v>
       </c>
       <c r="V190" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.4004104435443878</v>
       </c>
       <c r="W190" t="n">
-        <v>0.02631076611578465</v>
+        <v>0.2065589129924774</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8780770301818848</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.4000245332717896</v>
       </c>
       <c r="W191" t="n">
-        <v>0.139171838760376</v>
+        <v>0.2285341918468475</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9158711433410645</v>
       </c>
       <c r="V192" t="n">
-        <v>0.371780127286911</v>
+        <v>0.8649585843086243</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2960349917411804</v>
+        <v>0.002592088654637337</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8588080406188965</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.5234796404838562</v>
       </c>
       <c r="W193" t="n">
-        <v>0.07986638695001602</v>
+        <v>0.1124451383948326</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8612990379333496</v>
       </c>
       <c r="V194" t="n">
-        <v>0.490370512008667</v>
+        <v>0.5225178003311157</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1375879645347595</v>
+        <v>0.114772729575634</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8654680252075195</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.4004062116146088</v>
       </c>
       <c r="W195" t="n">
-        <v>0.02984970808029175</v>
+        <v>0.2162824869155884</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.9180011749267578</v>
       </c>
       <c r="V196" t="n">
-        <v>0.417632520198822</v>
+        <v>0.5276278853416443</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2503688037395477</v>
+        <v>0.1523912996053696</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8679180145263672</v>
       </c>
       <c r="V197" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.5224213600158691</v>
       </c>
       <c r="W197" t="n">
-        <v>0.0008839202928356826</v>
+        <v>0.1193679347634315</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8556070327758789</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.3993441164493561</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2548845708370209</v>
+        <v>0.208175852894783</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8628361225128174</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.4004164636135101</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1592113077640533</v>
+        <v>0.2138319462537766</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.9108748435974121</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.5164496898651123</v>
       </c>
       <c r="W200" t="n">
-        <v>0.3137287795543671</v>
+        <v>0.1555712074041367</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8789441585540771</v>
       </c>
       <c r="V201" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.4004204273223877</v>
       </c>
       <c r="W201" t="n">
-        <v>0.002044763648882508</v>
+        <v>0.2289849668741226</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5185210704803467</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.5084832906723022</v>
       </c>
       <c r="W202" t="n">
-        <v>0.0101949404925108</v>
+        <v>0.0001007570244837552</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5143020153045654</v>
       </c>
       <c r="V203" t="n">
-        <v>0.802417516708374</v>
+        <v>0.3998092114925385</v>
       </c>
       <c r="W203" t="n">
-        <v>0.08301053941249847</v>
+        <v>0.01310860179364681</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5233390331268311</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.4022296965122223</v>
       </c>
       <c r="W204" t="n">
-        <v>5.419762146630092e-06</v>
+        <v>0.01466747187077999</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.574552059173584</v>
       </c>
       <c r="V205" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.5234984755516052</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01665032282471657</v>
+        <v>0.002606468508020043</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5172691345214844</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.5267599821090698</v>
       </c>
       <c r="W206" t="n">
-        <v>0.02772815525531769</v>
+        <v>9.007618791656569e-05</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5183050632476807</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.5192729234695435</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0008187209023162723</v>
+        <v>9.367533948534401e-07</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5169990062713623</v>
       </c>
       <c r="V208" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.8730244636535645</v>
       </c>
       <c r="W208" t="n">
-        <v>0.2102490067481995</v>
+        <v>0.1267541199922562</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5167889595031738</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.8833791613578796</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0006988259265199304</v>
+        <v>0.1343883723020554</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5175690650939941</v>
       </c>
       <c r="V210" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.521181046962738</v>
       </c>
       <c r="W210" t="n">
-        <v>0.02118709683418274</v>
+        <v>1.304641318711219e-05</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5190808773040771</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.5162911415100098</v>
       </c>
       <c r="W211" t="n">
-        <v>0.02832654677331448</v>
+        <v>7.782626198604703e-06</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.519989013671875</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.5155873894691467</v>
       </c>
       <c r="W212" t="n">
-        <v>0.000218227767618373</v>
+        <v>1.937429624376819e-05</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5166049003601074</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.400423139333725</v>
       </c>
       <c r="W213" t="n">
-        <v>0.00354483094997704</v>
+        <v>0.01349820196628571</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5213429927825928</v>
       </c>
       <c r="V214" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.8748468160629272</v>
       </c>
       <c r="W214" t="n">
-        <v>0.02910222299396992</v>
+        <v>0.1249649524688721</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5213229656219482</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.3993211090564728</v>
       </c>
       <c r="W215" t="n">
-        <v>0.02231273613870144</v>
+        <v>0.01488445326685905</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5711688995361328</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.5150790810585022</v>
       </c>
       <c r="W216" t="n">
-        <v>0.006787730846554041</v>
+        <v>0.003146067727357149</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.518887996673584</v>
       </c>
       <c r="V217" t="n">
-        <v>0.524641752243042</v>
+        <v>0.5326404571533203</v>
       </c>
       <c r="W217" t="n">
-        <v>3.310570173198357e-05</v>
+        <v>0.0001891301653813571</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5197031497955322</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.3998899161815643</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01043734326958656</v>
+        <v>0.01435521058738232</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5185332298278809</v>
       </c>
       <c r="V219" t="n">
-        <v>0.417630136013031</v>
+        <v>0.3992234170436859</v>
       </c>
       <c r="W219" t="n">
-        <v>0.01018143445253372</v>
+        <v>0.01423483155667782</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5172488689422607</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.399030864238739</v>
       </c>
       <c r="W220" t="n">
-        <v>0.02771949209272861</v>
+        <v>0.01397549640387297</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5520570278167725</v>
       </c>
       <c r="V221" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.8807591795921326</v>
       </c>
       <c r="W221" t="n">
-        <v>0.07953903079032898</v>
+        <v>0.1080451011657715</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3859729766845703</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.8672807812690735</v>
       </c>
       <c r="W222" t="n">
-        <v>0.09813841432332993</v>
+        <v>0.2316572070121765</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.389779806137085</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.5286888480186462</v>
       </c>
       <c r="W223" t="n">
-        <v>0.03718022257089615</v>
+        <v>0.01929572224617004</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3934268951416016</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.4022826254367828</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01232817303389311</v>
+        <v>7.842396007617936e-05</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3881750106811523</v>
       </c>
       <c r="V225" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.5133957266807556</v>
       </c>
       <c r="W225" t="n">
-        <v>0.001400597975589335</v>
+        <v>0.0156802274286747</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3922908306121826</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.4019160270690918</v>
       </c>
       <c r="W226" t="n">
-        <v>0.005113350227475166</v>
+        <v>9.264440450351685e-05</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3961069583892822</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.8665722608566284</v>
       </c>
       <c r="W227" t="n">
-        <v>0.0003040670126210898</v>
+        <v>0.2213376015424728</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3959329128265381</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.5056220293045044</v>
       </c>
       <c r="W228" t="n">
-        <v>0.0114776398986578</v>
+        <v>0.01203170232474804</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3955931663513184</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.5251645445823669</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0004856818995904177</v>
+        <v>0.01678874157369137</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3960201740264893</v>
       </c>
       <c r="V230" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.5157172679901123</v>
       </c>
       <c r="W230" t="n">
-        <v>0.1651073098182678</v>
+        <v>0.0143273938447237</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3916089534759521</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.4006682634353638</v>
       </c>
       <c r="W231" t="n">
-        <v>0.06852372735738754</v>
+        <v>8.207109931390733e-05</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4024291038513184</v>
       </c>
       <c r="V232" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.5239370465278625</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1584345549345016</v>
+        <v>0.01476418040692806</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3959600925445557</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.8754460215568542</v>
       </c>
       <c r="W233" t="n">
-        <v>0.02092165127396584</v>
+        <v>0.229906752705574</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4317121505737305</v>
       </c>
       <c r="V234" t="n">
-        <v>0.503772497177124</v>
+        <v>0.5268823504447937</v>
       </c>
       <c r="W234" t="n">
-        <v>0.005192693322896957</v>
+        <v>0.009057367220520973</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3981490135192871</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.8782932162284851</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01628643460571766</v>
+        <v>0.2305384576320648</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3963549137115479</v>
       </c>
       <c r="V236" t="n">
-        <v>0.417653352022171</v>
+        <v>0.5318475365638733</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0004536234773695469</v>
+        <v>0.01835825107991695</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.392866849899292</v>
       </c>
       <c r="V237" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.8747134804725647</v>
       </c>
       <c r="W237" t="n">
-        <v>0.0002138692070730031</v>
+        <v>0.2321761697530746</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3898019790649414</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.865436851978302</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01811184547841549</v>
+        <v>0.2262285351753235</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3896880149841309</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.5275439023971558</v>
       </c>
       <c r="W239" t="n">
-        <v>0.005496184807270765</v>
+        <v>0.01900424621999264</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.440601110458374</v>
       </c>
       <c r="V240" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.5162339806556702</v>
       </c>
       <c r="W240" t="n">
-        <v>0.003874871879816055</v>
+        <v>0.005720330867916346</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3964200019836426</v>
       </c>
       <c r="V241" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.8669686317443848</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0005899170064367354</v>
+        <v>0.2214160114526749</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8892219066619873</v>
       </c>
       <c r="V242" t="n">
-        <v>0.405481219291687</v>
+        <v>0.5027715563774109</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2340050488710403</v>
+        <v>0.149343878030777</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8880958557128906</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.515703558921814</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1800027787685394</v>
+        <v>0.1386760175228119</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8821029663085938</v>
       </c>
       <c r="V244" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.5651410818099976</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2602022588253021</v>
+        <v>0.1004648357629776</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8797919750213623</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.5196048617362976</v>
       </c>
       <c r="W245" t="n">
-        <v>0.05138424783945084</v>
+        <v>0.1297347545623779</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8725650310516357</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.5177899599075317</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1690056920051575</v>
+        <v>0.1258653551340103</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8623559474945068</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.3992231786251068</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1590936034917831</v>
+        <v>0.2144919633865356</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.868441104888916</v>
       </c>
       <c r="V248" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.8707228899002075</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2668667733669281</v>
+        <v>5.206542937230552e-06</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8773648738861084</v>
       </c>
       <c r="V249" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.3990477323532104</v>
       </c>
       <c r="W249" t="n">
-        <v>0.009570230729877949</v>
+        <v>0.228787288069725</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8719899654388428</v>
       </c>
       <c r="V250" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.401992529630661</v>
       </c>
       <c r="W250" t="n">
-        <v>0.005173374898731709</v>
+        <v>0.2208975851535797</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8753252029418945</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.8864469528198242</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1478669196367264</v>
+        <v>0.0001236933167092502</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8710792064666748</v>
       </c>
       <c r="V252" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.8812301754951477</v>
       </c>
       <c r="W252" t="n">
-        <v>0.004734485875815153</v>
+        <v>0.0001030421699397266</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8680069446563721</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.4021944403648376</v>
       </c>
       <c r="W253" t="n">
-        <v>0.16529181599617</v>
+        <v>0.2169812917709351</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.866581916809082</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.5212739109992981</v>
       </c>
       <c r="W254" t="n">
-        <v>0.04524765908718109</v>
+        <v>0.1192376166582108</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8684439659118652</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.4009763896465302</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1324341893196106</v>
+        <v>0.2185259312391281</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8795788288116455</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.5102452635765076</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1511009484529495</v>
+        <v>0.1364072859287262</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8748559951782227</v>
       </c>
       <c r="V257" t="n">
-        <v>0.505433976650238</v>
+        <v>0.401010274887085</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1364726275205612</v>
+        <v>0.2245297729969025</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8639581203460693</v>
       </c>
       <c r="V258" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.8733113408088684</v>
       </c>
       <c r="W258" t="n">
-        <v>0.0008912363555282354</v>
+        <v>8.748273103265092e-05</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8767330646514893</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.3998822569847107</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1238651424646378</v>
+        <v>0.2273866981267929</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9075560569763184</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.3990561068058014</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2401135563850403</v>
+        <v>0.2585722208023071</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.870189905166626</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.4000268280506134</v>
       </c>
       <c r="W261" t="n">
-        <v>0.08269355446100235</v>
+        <v>0.2210533171892166</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5263261795043945</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.5167220234870911</v>
       </c>
       <c r="W262" t="n">
-        <v>0.003691497724503279</v>
+        <v>9.223981032846496e-05</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5454580783843994</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.5154383182525635</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0163323488086462</v>
+        <v>0.0009011860238388181</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5210950374603271</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.5164435505867004</v>
       </c>
       <c r="W264" t="n">
-        <v>0.005421048495918512</v>
+        <v>2.163632962037809e-05</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5519230365753174</v>
       </c>
       <c r="V265" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.8670602440834045</v>
       </c>
       <c r="W265" t="n">
-        <v>0.02300096116960049</v>
+        <v>0.0993114560842514</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5214288234710693</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.5207949876785278</v>
       </c>
       <c r="W266" t="n">
-        <v>0.003731805132701993</v>
+        <v>4.017477976958617e-07</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5238571166992188</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.3990509808063507</v>
       </c>
       <c r="W267" t="n">
-        <v>0.0004044077650178224</v>
+        <v>0.01557657122612</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5269119739532471</v>
       </c>
       <c r="V268" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.8647061586380005</v>
       </c>
       <c r="W268" t="n">
-        <v>0.09441730380058289</v>
+        <v>0.1141049116849899</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5243968963623047</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.5082533359527588</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01686339825391769</v>
+        <v>0.0002606145571917295</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5201678276062012</v>
       </c>
       <c r="V270" t="n">
-        <v>0.975210964679718</v>
+        <v>0.5211442708969116</v>
       </c>
       <c r="W270" t="n">
-        <v>0.2070642560720444</v>
+        <v>9.534414857625961e-07</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5441799163818359</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.3990637958049774</v>
       </c>
       <c r="W271" t="n">
-        <v>0.01191584207117558</v>
+        <v>0.02105868794023991</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5297129154205322</v>
       </c>
       <c r="V272" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.8838661313056946</v>
       </c>
       <c r="W272" t="n">
-        <v>0.1992429345846176</v>
+        <v>0.1254245042800903</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5241339206695557</v>
       </c>
       <c r="V273" t="n">
-        <v>0.35074183344841</v>
+        <v>0.3999307453632355</v>
       </c>
       <c r="W273" t="n">
-        <v>0.03006481565535069</v>
+        <v>0.01542642898857594</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5279941558837891</v>
       </c>
       <c r="V274" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.8727983832359314</v>
       </c>
       <c r="W274" t="n">
-        <v>0.2003301382064819</v>
+        <v>0.1188899576663971</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5213677883148193</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.5229969024658203</v>
       </c>
       <c r="W275" t="n">
-        <v>1.394804257870419e-05</v>
+        <v>2.654012860148214e-06</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5750021934509277</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.8861067295074463</v>
       </c>
       <c r="W276" t="n">
-        <v>3.878909637933248e-07</v>
+        <v>0.09678602963685989</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5242359638214111</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.8676226139068604</v>
       </c>
       <c r="W277" t="n">
-        <v>0.0003663512179628015</v>
+        <v>0.1179143935441971</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5225801467895508</v>
       </c>
       <c r="V278" t="n">
-        <v>0.654336154460907</v>
+        <v>0.8803709149360657</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01735964603722095</v>
+        <v>0.1280142366886139</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5211999416351318</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.3990535736083984</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01073983311653137</v>
+        <v>0.01491973549127579</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5215599536895752</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.8743315935134888</v>
       </c>
       <c r="W280" t="n">
-        <v>1.110711673391052e-05</v>
+        <v>0.1244478300213814</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5221309661865234</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.870128333568573</v>
       </c>
       <c r="W281" t="n">
-        <v>0.000319411774398759</v>
+        <v>0.1211021691560745</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4060540199279785</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.3990227282047272</v>
       </c>
       <c r="W282" t="n">
-        <v>0.08224577456712723</v>
+        <v>4.943906242260709e-05</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4071450233459473</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.8698871731758118</v>
       </c>
       <c r="W283" t="n">
-        <v>0.06132297962903976</v>
+        <v>0.2141302973031998</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3986051082611084</v>
       </c>
       <c r="V284" t="n">
-        <v>0.802345335483551</v>
+        <v>0.8685076832771301</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1630061715841293</v>
+        <v>0.2208084315061569</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4002549648284912</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.8673197627067566</v>
       </c>
       <c r="W285" t="n">
-        <v>0.0003018054412677884</v>
+        <v>0.2181495279073715</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3977010250091553</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.8868581652641296</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0003925125056412071</v>
+        <v>0.2392747104167938</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.39717698097229</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.4020124971866608</v>
       </c>
       <c r="W287" t="n">
-        <v>0.0320640355348587</v>
+        <v>2.338221747777425e-05</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4492170810699463</v>
       </c>
       <c r="V288" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8730396032333374</v>
       </c>
       <c r="W288" t="n">
-        <v>0.126322865486145</v>
+        <v>0.1796255260705948</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4265811443328857</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.4004068970680237</v>
       </c>
       <c r="W289" t="n">
-        <v>0.0014275525463745</v>
+        <v>0.0006850912468507886</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3945159912109375</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.8669319748878479</v>
       </c>
       <c r="W290" t="n">
-        <v>0.06707831472158432</v>
+        <v>0.2231768667697906</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3942210674285889</v>
       </c>
       <c r="V291" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.5288468599319458</v>
       </c>
       <c r="W291" t="n">
-        <v>0.165681466460228</v>
+        <v>0.01812410354614258</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3968651294708252</v>
       </c>
       <c r="V292" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.3999371826648712</v>
       </c>
       <c r="W292" t="n">
-        <v>0.002041562926024199</v>
+        <v>9.437510925636161e-06</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3979339599609375</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.8624942302703857</v>
       </c>
       <c r="W293" t="n">
-        <v>0.01120998617261648</v>
+        <v>0.2158162444829941</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4539699554443359</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.3990670144557953</v>
       </c>
       <c r="W294" t="n">
-        <v>0.0601545125246048</v>
+        <v>0.003014332847669721</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3958609104156494</v>
       </c>
       <c r="V295" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.4010002911090851</v>
       </c>
       <c r="W295" t="n">
-        <v>0.1671050190925598</v>
+        <v>2.641323408170138e-05</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3947429656982422</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.8893295526504517</v>
       </c>
       <c r="W296" t="n">
-        <v>0.09270833432674408</v>
+        <v>0.2446158975362778</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.39599609375</v>
       </c>
       <c r="V297" t="n">
-        <v>0.699232816696167</v>
+        <v>0.8734567165374756</v>
       </c>
       <c r="W297" t="n">
-        <v>0.09195251017808914</v>
+        <v>0.2279686480760574</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3994228839874268</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.8726893067359924</v>
       </c>
       <c r="W298" t="n">
-        <v>0.003855813294649124</v>
+        <v>0.223981112241745</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3983569145202637</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.4004556834697723</v>
       </c>
       <c r="W299" t="n">
-        <v>0.01591235212981701</v>
+        <v>4.40483108832268e-06</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3944289684295654</v>
       </c>
       <c r="V300" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.4000237286090851</v>
       </c>
       <c r="W300" t="n">
-        <v>0.3382917940616608</v>
+        <v>3.130134064122103e-05</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3990001678466797</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.885557234287262</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0003469313669484109</v>
+        <v>0.2367377728223801</v>
       </c>
     </row>
     <row r="302" spans="1:23">
